--- a/Python/Hockey pool/History.xlsx
+++ b/Python/Hockey pool/History.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67879A2E-8289-4514-A330-508E401A2837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4F32BA23-B6E0-43E8-A7F8-874B53E18053}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725" calcOnSave="0"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Rick Howard</t>
   </si>
@@ -57,15 +51,6 @@
     <t>Shelley Holmes</t>
   </si>
   <si>
-    <t>Jamie Smith</t>
-  </si>
-  <si>
-    <t>Kyle Smith</t>
-  </si>
-  <si>
-    <t>Lance Lunn</t>
-  </si>
-  <si>
     <t>Arnold Dill</t>
   </si>
   <si>
@@ -78,18 +63,12 @@
     <t>Justin Thibault</t>
   </si>
   <si>
-    <t>Robert Leblanc</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Danny Dugan</t>
   </si>
   <si>
-    <t>James Crawford</t>
-  </si>
-  <si>
     <t>Counts</t>
   </si>
   <si>
@@ -102,9 +81,6 @@
     <t>Money Left to Collect</t>
   </si>
   <si>
-    <t>Tony Underhill</t>
-  </si>
-  <si>
     <t>Sarah Ebbett</t>
   </si>
   <si>
@@ -115,17 +91,47 @@
   </si>
   <si>
     <t>Gus Briggs</t>
+  </si>
+  <si>
+    <t>Wyatt Lunn</t>
+  </si>
+  <si>
+    <t>Riley Lunn</t>
+  </si>
+  <si>
+    <t>Pool Fee</t>
+  </si>
+  <si>
+    <t>1st Prize</t>
+  </si>
+  <si>
+    <t>2nd Prize</t>
+  </si>
+  <si>
+    <t>3rd Prize</t>
+  </si>
+  <si>
+    <t>Reid Smith</t>
+  </si>
+  <si>
+    <t>Janet Orser</t>
+  </si>
+  <si>
+    <t>Jennifer Skarrup</t>
+  </si>
+  <si>
+    <t>Have Sheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +156,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,25 +234,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -266,6 +303,9 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -280,18 +320,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1405A43-810C-4B20-8272-35650E891071}" name="Table1" displayName="Table1" ref="A1:D27" totalsRowCount="1">
-  <autoFilter ref="A1:D26" xr:uid="{D1405A43-810C-4B20-8272-35650E891071}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowCount="1">
+  <autoFilter ref="A1:E26">
+    <filterColumn colId="3"/>
+  </autoFilter>
+  <sortState ref="A2:C26">
     <sortCondition ref="A1:A26"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02AB2788-C9D9-4135-A5F9-5C73C72CDC73}" name="Name" totalsRowFunction="count" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{442BEC2B-E46A-46F2-AD6D-EE7A7B2D76CB}" name="Paid" totalsRowFunction="count" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FE094C8F-8E6C-42A5-9290-E2CF7B1594AF}" name="Entered" totalsRowFunction="count" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B53BF9F0-2A25-4DB9-9BB3-C874E19968DD}" name="Interest" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Name" totalsRowFunction="count" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Paid" totalsRowFunction="count" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="Entered" totalsRowFunction="count" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Have Sheet" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="Interest" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</calculatedColumnFormula>
-      <totalsRowFormula>COUNTIF(Table1[Interest], 1)</totalsRowFormula>
+      <totalsRowFormula>COUNTIF([Interest], 1)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -341,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -393,7 +436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -587,30 +630,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD7C8D-130B-46E8-964F-4E381E028FDC}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -619,12 +663,15 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>45032</v>
@@ -633,20 +680,29 @@
         <v>45032</v>
       </c>
       <c r="D2" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45033</v>
       </c>
       <c r="D3" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -657,11 +713,14 @@
         <v>45029</v>
       </c>
       <c r="D4" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -672,13 +731,16 @@
         <v>45030</v>
       </c>
       <c r="D5" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>45032</v>
@@ -687,273 +749,370 @@
         <v>45032</v>
       </c>
       <c r="D6" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45033</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45029</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45033</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45030</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45033</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45033</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45033</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45030</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45030</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B16" s="1">
+        <v>45030</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45030</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45029</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45030</v>
-      </c>
-      <c r="D11" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45030</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45030</v>
-      </c>
-      <c r="D15" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44998</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
       </c>
       <c r="B17" s="1">
         <v>45030</v>
       </c>
-      <c r="C17" s="1">
-        <v>45030</v>
-      </c>
-      <c r="D17" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45033</v>
       </c>
       <c r="D18" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45032</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45031</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45032</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="6">
+        <f>Table1[[#Totals],[Paid]]*10</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45033</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="8">
+        <f>(Table1[[#Totals],[Name]]-Table1[[#Totals],[Paid]]) * 10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45033</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1">
-        <v>45030</v>
-      </c>
-      <c r="D19" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="G22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="12">
+        <f>($G$20-$G$22)*0.5</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="13">
+        <f>($G$20-$G$22)*0.35</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11">
         <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="6">
-        <f>Table1[[#Totals],[Paid]]*10</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45032</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45031</v>
-      </c>
-      <c r="D21" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="8">
-        <f>(Table1[[#Totals],[Name]]-Table1[[#Totals],[Paid]]) * 10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1">
-        <v>45032</v>
-      </c>
-      <c r="D23" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="11">
-        <f>IF(OR(NOT(ISBLANK(Table1[[#This Row],[Paid]])),NOT(ISBLANK(Table1[[#This Row],[Entered]]))), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="14">
+        <f>($G$20-$G$22)*0.15</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
-        <f>SUBTOTAL(103,Table1[Name])</f>
-        <v>22</v>
+        <f>SUBTOTAL(103,[Name])</f>
+        <v>21</v>
       </c>
       <c r="B27" s="4">
-        <f>SUBTOTAL(103,Table1[Paid])</f>
-        <v>12</v>
+        <f>SUBTOTAL(103,[Paid])</f>
+        <v>21</v>
       </c>
       <c r="C27" s="4">
-        <f>SUBTOTAL(103,Table1[Entered])</f>
+        <f>SUBTOTAL(103,[Entered])</f>
         <v>7</v>
       </c>
-      <c r="D27" s="2">
-        <f>COUNTIF(Table1[Interest], 1)</f>
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="15">
+        <f>SUBTOTAL(109,[Have Sheet])</f>
+        <v>18</v>
+      </c>
+      <c r="E27" s="2">
+        <f>COUNTIF([Interest], 1)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="3">
         <f>Table1[[#Totals],[Name]]-Table1[[#Totals],[Paid]]</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2">
         <f>Table1[[#Totals],[Name]]-Table1[[#Totals],[Entered]]</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2">
+        <f>Table1[[#Totals],[Name]]-Table1[[#Totals],[Have Sheet]]</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
         <f>Table1[[#Totals],[Name]]-Table1[[#Totals],[Interest]]</f>
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
